--- a/metro_budget_exercise day 1.xlsx
+++ b/metro_budget_exercise day 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19014\Desktop\NSS\EXCEL\lookups-exercise-Philip-Schingle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB68F3B-3510-4207-AC40-FA5ACE8E632E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3286A-3A17-46FB-B939-1DC053AA3A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>Department</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1202,7 @@
     <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E52" si="1">D3/B3</f>
+        <f t="shared" ref="E3:E10" si="1">D3/B3</f>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
@@ -1363,11 +1366,11 @@
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="8">RANK(O3,$O$2:$O$52)</f>
+        <f t="shared" ref="P3:P52" si="8">RANK(O3,$O$2:$O$52)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1543,8 +1546,11 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>

--- a/metro_budget_exercise day 1.xlsx
+++ b/metro_budget_exercise day 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19014\Desktop\NSS\EXCEL\lookups-exercise-Philip-Schingle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3286A-3A17-46FB-B939-1DC053AA3A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70D1FE-E23E-4538-BDDF-EC6BD82A64C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4288,15 +4288,15 @@
         <v>24</v>
       </c>
       <c r="B56">
-        <f>VLOOKUP(A56,$A$1:$O$52,4,FALSE)</f>
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH($B$55,$A$1:$P$1,0),FALSE)</f>
         <v>-36209.630000000005</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(A56,$A$2:$P$52,9,FALSE)</f>
+        <f>VLOOKUP(A56,$A$1:$P$52,MATCH($C$55,$A$1:$P$1,0),FALSE)</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(A56,$A$2:$O$52,14,FALSE)</f>
+        <f>VLOOKUP(A56,$A$1:$P$52,MATCH($D$55,$A$1:$P$1,0),FALSE)</f>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -4305,15 +4305,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="10">VLOOKUP(A57,$A$1:$O$52,4,FALSE)</f>
+        <f>VLOOKUP($A57,$A$1:$P$52,MATCH(B55,$A$1:$P$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="11">VLOOKUP(A57,$A$2:$P$52,9,FALSE)</f>
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP(A57,$A$1:$P$52,MATCH($C$55,$A$1:$P$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="12">VLOOKUP(A57,$A$2:$O$52,14,FALSE)</f>
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP(A57,$A$1:$P$52,MATCH($D$55,$A$1:$P$1,0),FALSE)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -4322,15 +4322,15 @@
         <v>32</v>
       </c>
       <c r="B58">
+        <f t="shared" ref="B57:B61" si="12">VLOOKUP($A58,$A$1:$P$52,MATCH($B$55,$A$1:$P$1,0),FALSE)</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="10"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C58">
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="11"/>
-        <v>-189254.06000000006</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="12"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4339,15 +4339,15 @@
         <v>38</v>
       </c>
       <c r="B59">
+        <f>VLOOKUP($A59,$A$1:$P$52,MATCH(B$55,$A$1:$P$1,0),FALSE)</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="10"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C59">
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="11"/>
-        <v>-45485.580000000075</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="12"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4356,15 +4356,15 @@
         <v>39</v>
       </c>
       <c r="B60">
+        <f t="shared" si="12"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="10"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C60">
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="11"/>
-        <v>-8005.7900000010268</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="12"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4373,15 +4373,15 @@
         <v>55</v>
       </c>
       <c r="B61">
+        <f t="shared" si="12"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="10"/>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="C61">
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="11"/>
-        <v>-133456.33000001032</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="12"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4650,12 +4650,12 @@
         <v>73</v>
       </c>
       <c r="B84" s="6">
-        <f>INDEX($B$2:$B$52,MATCH(B87,$A$2:$A$52,0))</f>
+        <f>INDEX($B$1:$B$52,MATCH(B87,$A$2:$A$52,0))</f>
         <v>328800</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX($C$2:$C$52,MATCH(B87,$A$2:$A$52,0))</f>
-        <v>321214.59000000003</v>
+        <v>3115157.5599999898</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4664,11 +4664,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX($G$2:$G$52,MATCH(B87,$A$2:$A$52,0))</f>
-        <v>334800</v>
+        <v>3652300</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX($H$2:$H$52,MATCH($B$87,$A$2:$A$52,0))</f>
-        <v>312433.70999999897</v>
+        <v>3589693.2099999902</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4677,16 +4677,16 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX($L$2:$L$52,MATCH($B$87,$A$2:$A$52,0))</f>
-        <v>322700</v>
+        <v>3662400</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX($M$2:$M$52,MATCH($B$87,$A$2:$A$52,0))</f>
-        <v>322263.03999999998</v>
+        <v>3564983.04999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F76" xr:uid="{2CC3BFB5-262D-449A-BB3E-A0785CAB4468}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F76 E84" xr:uid="{2CC3BFB5-262D-449A-BB3E-A0785CAB4468}">
       <formula1>"A2:A52"</formula1>
     </dataValidation>
   </dataValidations>
